--- a/Data/PDFdata.xlsx
+++ b/Data/PDFdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Desktop\Workspace\572Lab1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE79FE16-858B-4085-A4C0-701D216C0099}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2826C2D-0975-4A28-9A2C-B0E43CE4FF71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1529,98 +1529,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1649,62 +1625,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2062,7 +2062,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$E$2:$E$3</c15:sqref>
@@ -2089,7 +2089,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$C$4:$C$10</c15:sqref>
@@ -2124,7 +2124,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$E$4:$E$10</c15:sqref>
@@ -2137,7 +2137,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-C8F3-467B-8902-2F082F6065F7}"/>
                   </c:ext>
@@ -2150,7 +2150,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$G$2:$G$3</c15:sqref>
@@ -2177,7 +2177,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$C$4:$C$10</c15:sqref>
@@ -2212,7 +2212,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$G$4:$G$10</c15:sqref>
@@ -2225,7 +2225,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C8F3-467B-8902-2F082F6065F7}"/>
                   </c:ext>
@@ -2238,7 +2238,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$H$2:$H$3</c15:sqref>
@@ -2265,7 +2265,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$C$4:$C$10</c15:sqref>
@@ -2300,7 +2300,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$H$4:$H$10</c15:sqref>
@@ -2313,7 +2313,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-C8F3-467B-8902-2F082F6065F7}"/>
                   </c:ext>
@@ -2326,7 +2326,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$I$2:$I$3</c15:sqref>
@@ -2353,7 +2353,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$C$4:$C$10</c15:sqref>
@@ -2388,7 +2388,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$I$4:$I$10</c15:sqref>
@@ -2401,7 +2401,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-C8F3-467B-8902-2F082F6065F7}"/>
                   </c:ext>
@@ -2414,7 +2414,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$J$2:$J$3</c15:sqref>
@@ -2443,7 +2443,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$C$4:$C$10</c15:sqref>
@@ -2478,7 +2478,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$J$4:$J$10</c15:sqref>
@@ -2491,7 +2491,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-C8F3-467B-8902-2F082F6065F7}"/>
                   </c:ext>
@@ -2504,7 +2504,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$L$2:$L$3</c15:sqref>
@@ -2533,7 +2533,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$C$4:$C$10</c15:sqref>
@@ -2568,7 +2568,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Table 1'!$L$4:$L$10</c15:sqref>
@@ -2581,7 +2581,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-C8F3-467B-8902-2F082F6065F7}"/>
                   </c:ext>
@@ -2774,7 +2774,1122 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Table 1'!$C$11:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Alfalfa seed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Almonds</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Apples</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avocados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cherries, early</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cherries, late</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Melons, other</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Plums</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prunes</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sunflowers</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vegetable seed</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Watermelon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Table 1'!$F$11:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>48.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9793-4AFA-807F-24AE41061780}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Table 1'!$C$11:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Alfalfa seed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Almonds</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Apples</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avocados</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cherries, early</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cherries, late</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Melons, other</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Plums</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prunes</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sunflowers</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vegetable seed</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Watermelon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Table 1'!$K$11:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>57.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>165.57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9793-4AFA-807F-24AE41061780}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1660089056"/>
+        <c:axId val="1661468832"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$C$11:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>Alfalfa seed</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Almonds</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Apples</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Avocados</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Cherries, early</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Cherries, late</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Melons, other</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Plums</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Prunes</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Sunflowers</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Vegetable seed</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Watermelon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$D$11:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-9793-4AFA-807F-24AE41061780}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$C$11:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>Alfalfa seed</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Almonds</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Apples</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Avocados</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Cherries, early</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Cherries, late</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Melons, other</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Plums</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Prunes</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Sunflowers</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Vegetable seed</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Watermelon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$E$11:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-9793-4AFA-807F-24AE41061780}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$C$11:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>Alfalfa seed</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Almonds</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Apples</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Avocados</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Cherries, early</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Cherries, late</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Melons, other</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Plums</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Prunes</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Sunflowers</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Vegetable seed</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Watermelon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$G$11:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-9793-4AFA-807F-24AE41061780}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$C$11:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>Alfalfa seed</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Almonds</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Apples</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Avocados</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Cherries, early</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Cherries, late</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Melons, other</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Plums</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Prunes</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Sunflowers</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Vegetable seed</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Watermelon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$H$11:$H$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-9793-4AFA-807F-24AE41061780}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$C$11:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>Alfalfa seed</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Almonds</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Apples</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Avocados</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Cherries, early</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Cherries, late</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Melons, other</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Plums</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Prunes</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Sunflowers</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Vegetable seed</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Watermelon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$I$11:$I$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-9793-4AFA-807F-24AE41061780}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$C$11:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>Alfalfa seed</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Almonds</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Apples</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Avocados</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Cherries, early</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Cherries, late</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Melons, other</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Plums</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Prunes</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Sunflowers</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Vegetable seed</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Watermelon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$J$11:$J$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-9793-4AFA-807F-24AE41061780}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$C$11:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>Alfalfa seed</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Almonds</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Apples</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Avocados</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Cherries, early</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Cherries, late</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Melons, other</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Plums</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Prunes</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Sunflowers</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Vegetable seed</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Watermelon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Table 1'!$L$11:$L$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-9793-4AFA-807F-24AE41061780}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1660089056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661468832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1661468832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1660089056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3317,20 +4432,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3350,6 +4968,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1304925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579F097E-43FC-41AF-A873-1AD2E60D8BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3682,7 +5336,7 @@
   <dimension ref="A1:X80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="C11" sqref="C11:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3713,982 +5367,982 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19" t="s">
+      <c r="N2" s="73"/>
+      <c r="O2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="19"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="27">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68">
         <v>67.709999999999994</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28">
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69">
         <v>173.25</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29">
+      <c r="L4" s="69"/>
+      <c r="M4" s="70">
         <v>2.56</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30">
+      <c r="N4" s="70"/>
+      <c r="O4" s="71">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="S4" s="26">
+      <c r="P4" s="71"/>
+      <c r="S4" s="19">
         <v>1993</v>
       </c>
-      <c r="T4" s="26"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="33">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55">
         <v>51.04</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34">
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56">
         <v>51.3</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35">
+      <c r="L5" s="56"/>
+      <c r="M5" s="57">
         <v>1.01</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36">
+      <c r="N5" s="57"/>
+      <c r="O5" s="58">
         <v>0</v>
       </c>
-      <c r="P5" s="36"/>
-      <c r="S5" s="32">
+      <c r="P5" s="58"/>
+      <c r="S5" s="18">
         <v>1987</v>
       </c>
-      <c r="T5" s="32"/>
+      <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="31" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="33">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55">
         <v>69.790000000000006</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34">
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56">
         <v>65</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35">
+      <c r="L6" s="56"/>
+      <c r="M6" s="57">
         <v>0.93</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36">
+      <c r="N6" s="57"/>
+      <c r="O6" s="58">
         <v>-0.3</v>
       </c>
-      <c r="P6" s="36"/>
-      <c r="S6" s="32">
+      <c r="P6" s="58"/>
+      <c r="S6" s="18">
         <v>1987</v>
       </c>
-      <c r="T6" s="32"/>
+      <c r="T6" s="18"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="33">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55">
         <v>33.369999999999997</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34">
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56">
         <v>64.5</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35">
+      <c r="L7" s="56"/>
+      <c r="M7" s="57">
         <v>1.93</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36">
+      <c r="N7" s="57"/>
+      <c r="O7" s="58">
         <v>2.4</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="S7" s="32">
+      <c r="P7" s="58"/>
+      <c r="S7" s="18">
         <v>1987</v>
       </c>
-      <c r="T7" s="32"/>
+      <c r="T7" s="18"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="33">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55">
         <v>35.36</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56">
         <v>53.7</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35">
+      <c r="L8" s="56"/>
+      <c r="M8" s="57">
         <v>1.52</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36">
+      <c r="N8" s="57"/>
+      <c r="O8" s="58">
         <v>1.5</v>
       </c>
-      <c r="P8" s="36"/>
-      <c r="S8" s="32">
+      <c r="P8" s="58"/>
+      <c r="S8" s="18">
         <v>1987</v>
       </c>
-      <c r="T8" s="32"/>
+      <c r="T8" s="18"/>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="33">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55">
         <v>46.52</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34">
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56">
         <v>51</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35">
+      <c r="L9" s="56"/>
+      <c r="M9" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36">
+      <c r="N9" s="57"/>
+      <c r="O9" s="58">
         <v>0.3</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="S9" s="32">
+      <c r="P9" s="58"/>
+      <c r="S9" s="18">
         <v>1987</v>
       </c>
-      <c r="T9" s="32"/>
+      <c r="T9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="22" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="40">
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61">
         <v>47.73</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41">
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62">
         <v>51.2</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42">
+      <c r="L10" s="62"/>
+      <c r="M10" s="63">
         <v>1.07</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="43">
+      <c r="N10" s="63"/>
+      <c r="O10" s="64">
         <v>0.3</v>
       </c>
-      <c r="P10" s="43"/>
-      <c r="S10" s="39">
+      <c r="P10" s="64"/>
+      <c r="S10" s="17">
         <v>1987</v>
       </c>
-      <c r="T10" s="39"/>
+      <c r="T10" s="17"/>
     </row>
     <row r="11" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="27">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68">
         <v>48.22</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28">
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69">
         <v>57.61</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="29">
+      <c r="L11" s="69"/>
+      <c r="M11" s="70">
         <v>1.19</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30">
+      <c r="N11" s="70"/>
+      <c r="O11" s="71">
         <v>1.4</v>
       </c>
-      <c r="P11" s="30"/>
-      <c r="S11" s="26">
+      <c r="P11" s="71"/>
+      <c r="S11" s="19">
         <v>2002</v>
       </c>
-      <c r="T11" s="26"/>
+      <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="31" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="33">
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55">
         <v>72.06</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34">
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56">
         <v>175.52</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35">
+      <c r="L12" s="56"/>
+      <c r="M12" s="57">
         <v>2.44</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36">
+      <c r="N12" s="57"/>
+      <c r="O12" s="58">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P12" s="36"/>
-      <c r="S12" s="32">
+      <c r="P12" s="58"/>
+      <c r="S12" s="18">
         <v>1995</v>
       </c>
-      <c r="T12" s="32"/>
+      <c r="T12" s="18"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="33">
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55">
         <v>27.17</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34">
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56">
         <v>25</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35">
+      <c r="L13" s="56"/>
+      <c r="M13" s="57">
         <v>0.92</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="36">
+      <c r="N13" s="57"/>
+      <c r="O13" s="58">
         <v>-0.4</v>
       </c>
-      <c r="P13" s="36"/>
-      <c r="S13" s="32">
+      <c r="P13" s="58"/>
+      <c r="S13" s="18">
         <v>1995</v>
       </c>
-      <c r="T13" s="32"/>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="31" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="33">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55">
         <v>38.17</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34">
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56">
         <v>30</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35">
+      <c r="L14" s="56"/>
+      <c r="M14" s="57">
         <v>0.79</v>
       </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36">
+      <c r="N14" s="57"/>
+      <c r="O14" s="58">
         <v>-1.3</v>
       </c>
-      <c r="P14" s="36"/>
-      <c r="S14" s="32">
+      <c r="P14" s="58"/>
+      <c r="S14" s="18">
         <v>1996</v>
       </c>
-      <c r="T14" s="32"/>
+      <c r="T14" s="18"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="31" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="33">
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="55">
         <v>73.709999999999994</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34">
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56">
         <v>121.63</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35">
+      <c r="L15" s="56"/>
+      <c r="M15" s="57">
         <v>1.65</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36">
+      <c r="N15" s="57"/>
+      <c r="O15" s="58">
         <v>2.5</v>
       </c>
-      <c r="P15" s="36"/>
-      <c r="S15" s="32">
+      <c r="P15" s="58"/>
+      <c r="S15" s="18">
         <v>1995</v>
       </c>
-      <c r="T15" s="32"/>
+      <c r="T15" s="18"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="33">
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55">
         <v>28.61</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56">
         <v>37.590000000000003</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35">
+      <c r="L16" s="56"/>
+      <c r="M16" s="57">
         <v>1.31</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36">
+      <c r="N16" s="57"/>
+      <c r="O16" s="58">
         <v>2.1</v>
       </c>
-      <c r="P16" s="36"/>
-      <c r="S16" s="32">
+      <c r="P16" s="58"/>
+      <c r="S16" s="18">
         <v>2002</v>
       </c>
-      <c r="T16" s="32"/>
+      <c r="T16" s="18"/>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="33">
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55">
         <v>39.590000000000003</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34">
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56">
         <v>47.44</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35">
+      <c r="L17" s="56"/>
+      <c r="M17" s="57">
         <v>1.2</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36">
+      <c r="N17" s="57"/>
+      <c r="O17" s="58">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P17" s="36"/>
-      <c r="S17" s="32">
+      <c r="P17" s="58"/>
+      <c r="S17" s="18">
         <v>1998</v>
       </c>
-      <c r="T17" s="32"/>
+      <c r="T17" s="18"/>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="33">
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55">
         <v>70.22</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34">
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56">
         <v>165.57</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35">
+      <c r="L18" s="56"/>
+      <c r="M18" s="57">
         <v>2.36</v>
       </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="36">
+      <c r="N18" s="57"/>
+      <c r="O18" s="58">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P18" s="36"/>
-      <c r="S18" s="32">
+      <c r="P18" s="58"/>
+      <c r="S18" s="18">
         <v>1995</v>
       </c>
-      <c r="T18" s="32"/>
+      <c r="T18" s="18"/>
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="33">
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55">
         <v>15.77</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34">
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56">
         <v>18</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35">
+      <c r="L19" s="56"/>
+      <c r="M19" s="57">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="36">
+      <c r="N19" s="57"/>
+      <c r="O19" s="58">
         <v>0.7</v>
       </c>
-      <c r="P19" s="36"/>
-      <c r="S19" s="32">
+      <c r="P19" s="58"/>
+      <c r="S19" s="18">
         <v>1995</v>
       </c>
-      <c r="T19" s="32"/>
+      <c r="T19" s="18"/>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="33">
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55">
         <v>29.5</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34">
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56">
         <v>38.840000000000003</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35">
+      <c r="L20" s="56"/>
+      <c r="M20" s="57">
         <v>1.32</v>
       </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="36">
+      <c r="N20" s="57"/>
+      <c r="O20" s="58">
         <v>1.4</v>
       </c>
-      <c r="P20" s="36"/>
-      <c r="S20" s="32">
+      <c r="P20" s="58"/>
+      <c r="S20" s="18">
         <v>1995</v>
       </c>
-      <c r="T20" s="32"/>
+      <c r="T20" s="18"/>
     </row>
     <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="33">
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55">
         <v>39.44</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34">
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56">
         <v>61.18</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35">
+      <c r="L21" s="56"/>
+      <c r="M21" s="57">
         <v>1.55</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="36">
+      <c r="N21" s="57"/>
+      <c r="O21" s="58">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P21" s="36"/>
-      <c r="S21" s="32">
+      <c r="P21" s="58"/>
+      <c r="S21" s="18">
         <v>1995</v>
       </c>
-      <c r="T21" s="32"/>
+      <c r="T21" s="18"/>
     </row>
     <row r="22" spans="1:20" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="22" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="40">
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61">
         <v>44.82</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41">
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62">
         <v>44.27</v>
       </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42">
+      <c r="L22" s="62"/>
+      <c r="M22" s="63">
         <v>0.99</v>
       </c>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43">
+      <c r="N22" s="63"/>
+      <c r="O22" s="64">
         <v>-0.1</v>
       </c>
-      <c r="P22" s="43"/>
-      <c r="S22" s="39">
+      <c r="P22" s="64"/>
+      <c r="S22" s="17">
         <v>1998</v>
       </c>
-      <c r="T22" s="39"/>
+      <c r="T22" s="17"/>
     </row>
     <row r="23" spans="1:20" ht="256.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:20" ht="27.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
     </row>
     <row r="26" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
     </row>
     <row r="27" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
     </row>
     <row r="28" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
     </row>
     <row r="30" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
     </row>
     <row r="31" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54">
+      <c r="A31" s="46">
         <v>200</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
     </row>
     <row r="32" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54">
+      <c r="A32" s="46">
         <v>150</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54">
+      <c r="A33" s="46">
         <v>100</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55">
+      <c r="A34" s="47">
         <v>50</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
     </row>
     <row r="35" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
     </row>
     <row r="36" spans="1:19" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
     </row>
     <row r="37" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4712,71 +6366,71 @@
     <row r="56" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:24" ht="31.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
     </row>
     <row r="59" spans="1:24" ht="102.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="57"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E59" s="58" t="s">
+      <c r="E59" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58" t="s">
+      <c r="F59" s="37"/>
+      <c r="G59" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58" t="s">
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="59" t="s">
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="59"/>
-      <c r="P59" s="58" t="s">
+      <c r="O59" s="38"/>
+      <c r="P59" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="60" t="s">
+      <c r="Q59" s="37"/>
+      <c r="R59" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="S59" s="60"/>
+      <c r="S59" s="39"/>
       <c r="T59" s="5" t="s">
         <v>40</v>
       </c>
@@ -4794,40 +6448,40 @@
       <c r="A60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="61">
+      <c r="B60" s="32">
         <v>16885</v>
       </c>
-      <c r="C60" s="61"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="8">
         <v>8729134</v>
       </c>
-      <c r="E60" s="62" t="s">
+      <c r="E60" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62" t="s">
+      <c r="F60" s="33"/>
+      <c r="G60" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62" t="s">
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="63">
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="34">
         <v>80.2</v>
       </c>
-      <c r="O60" s="63"/>
-      <c r="P60" s="62" t="s">
+      <c r="O60" s="34"/>
+      <c r="P60" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="64">
+      <c r="Q60" s="33"/>
+      <c r="R60" s="35">
         <v>0.2</v>
       </c>
-      <c r="S60" s="64"/>
+      <c r="S60" s="35"/>
       <c r="T60" s="9" t="s">
         <v>45</v>
       </c>
@@ -4845,40 +6499,40 @@
       <c r="A61" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="65">
+      <c r="B61" s="21">
         <v>920</v>
       </c>
-      <c r="C61" s="65"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="12">
         <v>5325000</v>
       </c>
-      <c r="E61" s="66">
+      <c r="E61" s="22">
         <v>5983</v>
       </c>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66">
+      <c r="F61" s="22"/>
+      <c r="G61" s="22">
         <v>1900</v>
       </c>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="67">
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="23">
         <v>2.8</v>
       </c>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67">
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23">
         <v>313</v>
       </c>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67">
+      <c r="O61" s="23"/>
+      <c r="P61" s="23">
         <v>5.23</v>
       </c>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="68">
+      <c r="Q61" s="23"/>
+      <c r="R61" s="24">
         <v>100</v>
       </c>
-      <c r="S61" s="68"/>
+      <c r="S61" s="24"/>
       <c r="T61" s="13">
         <v>7.98</v>
       </c>
@@ -4896,40 +6550,40 @@
       <c r="A62" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="65">
+      <c r="B62" s="21">
         <v>315.89999999999998</v>
       </c>
-      <c r="C62" s="65"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="12">
         <v>3394185</v>
       </c>
-      <c r="E62" s="66">
+      <c r="E62" s="22">
         <v>10745</v>
       </c>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66">
+      <c r="F62" s="22"/>
+      <c r="G62" s="22">
         <v>10004</v>
       </c>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="67">
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="23">
         <v>0.34</v>
       </c>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67">
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23">
         <v>37.200000000000003</v>
       </c>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67">
+      <c r="O62" s="23"/>
+      <c r="P62" s="23">
         <v>0.35</v>
       </c>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="68">
+      <c r="Q62" s="23"/>
+      <c r="R62" s="24">
         <v>67.2</v>
       </c>
-      <c r="S62" s="68"/>
+      <c r="S62" s="24"/>
       <c r="T62" s="13">
         <v>1.57</v>
       </c>
@@ -4947,40 +6601,40 @@
       <c r="A63" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="65">
+      <c r="B63" s="21">
         <v>59.3</v>
       </c>
-      <c r="C63" s="65"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="12">
         <v>295797</v>
       </c>
-      <c r="E63" s="66">
+      <c r="E63" s="22">
         <v>4990</v>
       </c>
-      <c r="F63" s="66"/>
-      <c r="G63" s="69">
+      <c r="F63" s="22"/>
+      <c r="G63" s="28">
         <v>448</v>
       </c>
-      <c r="H63" s="69"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="67">
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="23">
         <v>0.66</v>
       </c>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67">
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23">
         <v>74.2</v>
       </c>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67">
+      <c r="O63" s="23"/>
+      <c r="P63" s="23">
         <v>1.49</v>
       </c>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="68">
+      <c r="Q63" s="23"/>
+      <c r="R63" s="24">
         <v>14.5</v>
       </c>
-      <c r="S63" s="68"/>
+      <c r="S63" s="24"/>
       <c r="T63" s="13">
         <v>2.2400000000000002</v>
       </c>
@@ -4998,40 +6652,40 @@
       <c r="A64" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="65">
+      <c r="B64" s="21">
         <v>89.8</v>
       </c>
-      <c r="C64" s="65"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="12">
         <v>584150</v>
       </c>
-      <c r="E64" s="66">
+      <c r="E64" s="22">
         <v>6504</v>
       </c>
-      <c r="F64" s="66"/>
-      <c r="G64" s="69">
+      <c r="F64" s="22"/>
+      <c r="G64" s="28">
         <v>560</v>
       </c>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="67">
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="23">
         <v>1.04</v>
       </c>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67">
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23">
         <v>154.13999999999999</v>
       </c>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67">
+      <c r="O64" s="23"/>
+      <c r="P64" s="23">
         <v>1.71</v>
       </c>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="68">
+      <c r="Q64" s="23"/>
+      <c r="R64" s="24">
         <v>91.7</v>
       </c>
-      <c r="S64" s="68"/>
+      <c r="S64" s="24"/>
       <c r="T64" s="13">
         <v>4.7300000000000004</v>
       </c>
@@ -5049,40 +6703,40 @@
       <c r="A65" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="65">
+      <c r="B65" s="21">
         <v>54</v>
       </c>
-      <c r="C65" s="65"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="12">
         <v>207498</v>
       </c>
-      <c r="E65" s="66">
+      <c r="E65" s="22">
         <v>3843</v>
       </c>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66">
+      <c r="F65" s="22"/>
+      <c r="G65" s="22">
         <v>1377</v>
       </c>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="67">
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="23">
         <v>0.15</v>
       </c>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67">
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23">
         <v>46.3</v>
       </c>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67">
+      <c r="O65" s="23"/>
+      <c r="P65" s="23">
         <v>0.91</v>
       </c>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="68">
+      <c r="Q65" s="23"/>
+      <c r="R65" s="24">
         <v>52.9</v>
       </c>
-      <c r="S65" s="68"/>
+      <c r="S65" s="24"/>
       <c r="T65" s="13">
         <v>0.54</v>
       </c>
@@ -5100,40 +6754,40 @@
       <c r="A66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="65">
+      <c r="B66" s="21">
         <v>89.8</v>
       </c>
-      <c r="C66" s="65"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="12">
         <v>703228</v>
       </c>
-      <c r="E66" s="66">
+      <c r="E66" s="22">
         <v>7828</v>
       </c>
-      <c r="F66" s="66"/>
-      <c r="G66" s="69">
+      <c r="F66" s="22"/>
+      <c r="G66" s="28">
         <v>677</v>
       </c>
-      <c r="H66" s="69"/>
-      <c r="I66" s="69"/>
-      <c r="J66" s="67">
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="23">
         <v>1.04</v>
       </c>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67">
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23">
         <v>74.95</v>
       </c>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67">
+      <c r="O66" s="23"/>
+      <c r="P66" s="23">
         <v>0.89</v>
       </c>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="68">
+      <c r="Q66" s="23"/>
+      <c r="R66" s="24">
         <v>100</v>
       </c>
-      <c r="S66" s="68"/>
+      <c r="S66" s="24"/>
       <c r="T66" s="13">
         <v>3.59</v>
       </c>
@@ -5151,40 +6805,40 @@
       <c r="A67" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="70"/>
+      <c r="C67" s="30"/>
       <c r="D67" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="70" t="s">
+      <c r="E67" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70" t="s">
+      <c r="F67" s="30"/>
+      <c r="G67" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
-      <c r="J67" s="70" t="s">
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K67" s="70"/>
-      <c r="L67" s="70"/>
-      <c r="M67" s="70"/>
-      <c r="N67" s="67">
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="23">
         <v>38.799999999999997</v>
       </c>
-      <c r="O67" s="67"/>
-      <c r="P67" s="70" t="s">
+      <c r="O67" s="23"/>
+      <c r="P67" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="Q67" s="70"/>
-      <c r="R67" s="71" t="s">
+      <c r="Q67" s="30"/>
+      <c r="R67" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="S67" s="71"/>
+      <c r="S67" s="31"/>
       <c r="T67" s="14" t="s">
         <v>45</v>
       </c>
@@ -5202,40 +6856,40 @@
       <c r="A68" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="65">
+      <c r="B68" s="21">
         <v>40.9</v>
       </c>
-      <c r="C68" s="65"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="12">
         <v>267527</v>
       </c>
-      <c r="E68" s="66">
+      <c r="E68" s="22">
         <v>6541</v>
       </c>
-      <c r="F68" s="66"/>
-      <c r="G68" s="69">
+      <c r="F68" s="22"/>
+      <c r="G68" s="28">
         <v>856</v>
       </c>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="67">
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="23">
         <v>0.31</v>
       </c>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="67">
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23">
         <v>158.46</v>
       </c>
-      <c r="O68" s="67"/>
-      <c r="P68" s="67">
+      <c r="O68" s="23"/>
+      <c r="P68" s="23">
         <v>2.42</v>
       </c>
-      <c r="Q68" s="67"/>
-      <c r="R68" s="68">
+      <c r="Q68" s="23"/>
+      <c r="R68" s="24">
         <v>87.4</v>
       </c>
-      <c r="S68" s="68"/>
+      <c r="S68" s="24"/>
       <c r="T68" s="13">
         <v>4.79</v>
       </c>
@@ -5253,40 +6907,40 @@
       <c r="A69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="65">
+      <c r="B69" s="21">
         <v>118.7</v>
       </c>
-      <c r="C69" s="65"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="12">
         <v>345670</v>
       </c>
-      <c r="E69" s="66">
+      <c r="E69" s="22">
         <v>2912</v>
       </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66">
+      <c r="F69" s="22"/>
+      <c r="G69" s="22">
         <v>1769</v>
       </c>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="67">
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="23">
         <v>0.2</v>
       </c>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="67">
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23">
         <v>42.64</v>
       </c>
-      <c r="O69" s="67"/>
-      <c r="P69" s="67">
+      <c r="O69" s="23"/>
+      <c r="P69" s="23">
         <v>0.92</v>
       </c>
-      <c r="Q69" s="67"/>
-      <c r="R69" s="68">
+      <c r="Q69" s="23"/>
+      <c r="R69" s="24">
         <v>50.7</v>
       </c>
-      <c r="S69" s="68"/>
+      <c r="S69" s="24"/>
       <c r="T69" s="13">
         <v>1.3</v>
       </c>
@@ -5304,40 +6958,40 @@
       <c r="A70" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="65">
+      <c r="B70" s="21">
         <v>11</v>
       </c>
-      <c r="C70" s="65"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="12">
         <v>67584</v>
       </c>
-      <c r="E70" s="66">
+      <c r="E70" s="22">
         <v>6144</v>
       </c>
-      <c r="F70" s="66"/>
-      <c r="G70" s="69">
+      <c r="F70" s="22"/>
+      <c r="G70" s="28">
         <v>352</v>
       </c>
-      <c r="H70" s="69"/>
-      <c r="I70" s="69"/>
-      <c r="J70" s="67">
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="23">
         <v>0.19</v>
       </c>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67">
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23">
         <v>45.8</v>
       </c>
-      <c r="O70" s="67"/>
-      <c r="P70" s="67">
+      <c r="O70" s="23"/>
+      <c r="P70" s="23">
         <v>0.77</v>
       </c>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="68">
+      <c r="Q70" s="23"/>
+      <c r="R70" s="24">
         <v>64</v>
       </c>
-      <c r="S70" s="68"/>
+      <c r="S70" s="24"/>
       <c r="T70" s="13">
         <v>0.8</v>
       </c>
@@ -5355,40 +7009,40 @@
       <c r="A71" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="65">
+      <c r="B71" s="21">
         <v>4</v>
       </c>
-      <c r="C71" s="65"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="12">
         <v>30893</v>
       </c>
-      <c r="E71" s="66">
+      <c r="E71" s="22">
         <v>7723</v>
       </c>
-      <c r="F71" s="66"/>
-      <c r="G71" s="69">
+      <c r="F71" s="22"/>
+      <c r="G71" s="28">
         <v>47</v>
       </c>
-      <c r="H71" s="69"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="67">
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="23">
         <v>0.65</v>
       </c>
-      <c r="K71" s="67"/>
-      <c r="L71" s="67"/>
-      <c r="M71" s="67"/>
-      <c r="N71" s="67">
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23">
         <v>86.8</v>
       </c>
-      <c r="O71" s="67"/>
-      <c r="P71" s="67">
+      <c r="O71" s="23"/>
+      <c r="P71" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="Q71" s="67"/>
-      <c r="R71" s="68">
+      <c r="Q71" s="23"/>
+      <c r="R71" s="24">
         <v>61.3</v>
       </c>
-      <c r="S71" s="68"/>
+      <c r="S71" s="24"/>
       <c r="T71" s="13">
         <v>2.04</v>
       </c>
@@ -5406,40 +7060,40 @@
       <c r="A72" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B72" s="65">
+      <c r="B72" s="21">
         <v>48.9</v>
       </c>
-      <c r="C72" s="65"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="12">
         <v>500416</v>
       </c>
-      <c r="E72" s="66">
+      <c r="E72" s="22">
         <v>10225</v>
       </c>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66">
+      <c r="F72" s="22"/>
+      <c r="G72" s="22">
         <v>1641</v>
       </c>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="67">
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="23">
         <v>0.3</v>
       </c>
-      <c r="K72" s="67"/>
-      <c r="L72" s="67"/>
-      <c r="M72" s="67"/>
-      <c r="N72" s="67">
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23">
         <v>56</v>
       </c>
-      <c r="O72" s="67"/>
-      <c r="P72" s="67">
+      <c r="O72" s="23"/>
+      <c r="P72" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q72" s="67"/>
-      <c r="R72" s="68">
+      <c r="Q72" s="23"/>
+      <c r="R72" s="24">
         <v>56.8</v>
       </c>
-      <c r="S72" s="68"/>
+      <c r="S72" s="24"/>
       <c r="T72" s="13">
         <v>1.46</v>
       </c>
@@ -5457,40 +7111,40 @@
       <c r="A73" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B73" s="65">
+      <c r="B73" s="21">
         <v>434.7</v>
       </c>
-      <c r="C73" s="65"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="12">
         <v>331197</v>
       </c>
-      <c r="E73" s="69">
+      <c r="E73" s="28">
         <v>762</v>
       </c>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69">
+      <c r="F73" s="28"/>
+      <c r="G73" s="28">
         <v>870</v>
       </c>
-      <c r="H73" s="69"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="67">
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="23">
         <v>0.38</v>
       </c>
-      <c r="K73" s="67"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="67">
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23">
         <v>117</v>
       </c>
-      <c r="O73" s="67"/>
-      <c r="P73" s="67">
+      <c r="O73" s="23"/>
+      <c r="P73" s="23">
         <v>2.29</v>
       </c>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="68">
+      <c r="Q73" s="23"/>
+      <c r="R73" s="24">
         <v>20.100000000000001</v>
       </c>
-      <c r="S73" s="68"/>
+      <c r="S73" s="24"/>
       <c r="T73" s="13">
         <v>1.83</v>
       </c>
@@ -5508,40 +7162,40 @@
       <c r="A74" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="65">
+      <c r="B74" s="21">
         <v>43.2</v>
       </c>
-      <c r="C74" s="65"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="12">
         <v>90214</v>
       </c>
-      <c r="E74" s="66">
+      <c r="E74" s="22">
         <v>2206</v>
       </c>
-      <c r="F74" s="66"/>
-      <c r="G74" s="69">
+      <c r="F74" s="22"/>
+      <c r="G74" s="28">
         <v>754</v>
       </c>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="67">
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="23">
         <v>0.12</v>
       </c>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67">
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23">
         <v>51.53</v>
       </c>
-      <c r="O74" s="67"/>
-      <c r="P74" s="67">
+      <c r="O74" s="23"/>
+      <c r="P74" s="23">
         <v>2.34</v>
       </c>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="68">
+      <c r="Q74" s="23"/>
+      <c r="R74" s="24">
         <v>43</v>
       </c>
-      <c r="S74" s="68"/>
+      <c r="S74" s="24"/>
       <c r="T74" s="13">
         <v>1.35</v>
       </c>
@@ -5559,40 +7213,40 @@
       <c r="A75" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B75" s="65">
+      <c r="B75" s="21">
         <v>20.3</v>
       </c>
-      <c r="C75" s="65"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="12">
         <v>580924</v>
       </c>
-      <c r="E75" s="66">
+      <c r="E75" s="22">
         <v>28589</v>
       </c>
-      <c r="F75" s="66"/>
-      <c r="G75" s="69">
+      <c r="F75" s="22"/>
+      <c r="G75" s="28">
         <v>262</v>
       </c>
-      <c r="H75" s="69"/>
-      <c r="I75" s="69"/>
-      <c r="J75" s="67">
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="23">
         <v>2.21</v>
       </c>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="67"/>
-      <c r="N75" s="67">
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23">
         <v>127.55</v>
       </c>
-      <c r="O75" s="67"/>
-      <c r="P75" s="67">
+      <c r="O75" s="23"/>
+      <c r="P75" s="23">
         <v>0.45</v>
       </c>
-      <c r="Q75" s="67"/>
-      <c r="R75" s="68">
+      <c r="Q75" s="23"/>
+      <c r="R75" s="24">
         <v>48.2</v>
       </c>
-      <c r="S75" s="68"/>
+      <c r="S75" s="24"/>
       <c r="T75" s="13">
         <v>6.98</v>
       </c>
@@ -5610,40 +7264,40 @@
       <c r="A76" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="65">
+      <c r="B76" s="21">
         <v>38.700000000000003</v>
       </c>
-      <c r="C76" s="65"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="12">
         <v>174259</v>
       </c>
-      <c r="E76" s="66">
+      <c r="E76" s="22">
         <v>4504</v>
       </c>
-      <c r="F76" s="66"/>
-      <c r="G76" s="69">
+      <c r="F76" s="22"/>
+      <c r="G76" s="28">
         <v>602</v>
       </c>
-      <c r="H76" s="69"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="67">
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K76" s="67"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="67"/>
-      <c r="N76" s="67">
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23">
         <v>50.51</v>
       </c>
-      <c r="O76" s="67"/>
-      <c r="P76" s="67">
+      <c r="O76" s="23"/>
+      <c r="P76" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="Q76" s="67"/>
-      <c r="R76" s="68">
+      <c r="Q76" s="23"/>
+      <c r="R76" s="24">
         <v>55.8</v>
       </c>
-      <c r="S76" s="68"/>
+      <c r="S76" s="24"/>
       <c r="T76" s="13">
         <v>1.64</v>
       </c>
@@ -5661,40 +7315,40 @@
       <c r="A77" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="72">
+      <c r="B77" s="29">
         <v>1510</v>
       </c>
-      <c r="C77" s="72"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="12">
         <v>559257</v>
       </c>
-      <c r="E77" s="70" t="s">
+      <c r="E77" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70" t="s">
+      <c r="F77" s="30"/>
+      <c r="G77" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70" t="s">
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K77" s="70"/>
-      <c r="L77" s="70"/>
-      <c r="M77" s="70"/>
-      <c r="N77" s="67">
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="23">
         <v>53.3</v>
       </c>
-      <c r="O77" s="67"/>
-      <c r="P77" s="70" t="s">
+      <c r="O77" s="23"/>
+      <c r="P77" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="Q77" s="70"/>
-      <c r="R77" s="68">
+      <c r="Q77" s="30"/>
+      <c r="R77" s="24">
         <v>1.4</v>
       </c>
-      <c r="S77" s="68"/>
+      <c r="S77" s="24"/>
       <c r="T77" s="14" t="s">
         <v>45</v>
       </c>
@@ -5712,40 +7366,40 @@
       <c r="A78" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B78" s="65">
+      <c r="B78" s="21">
         <v>118.5</v>
       </c>
-      <c r="C78" s="65"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="12">
         <v>579011</v>
       </c>
-      <c r="E78" s="66">
+      <c r="E78" s="22">
         <v>4886</v>
       </c>
-      <c r="F78" s="66"/>
-      <c r="G78" s="66">
+      <c r="F78" s="22"/>
+      <c r="G78" s="22">
         <v>4020</v>
       </c>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="67">
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="67"/>
-      <c r="N78" s="67">
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23">
         <v>60.94</v>
       </c>
-      <c r="O78" s="67"/>
-      <c r="P78" s="67">
+      <c r="O78" s="23"/>
+      <c r="P78" s="23">
         <v>1.46</v>
       </c>
-      <c r="Q78" s="67"/>
-      <c r="R78" s="68">
+      <c r="Q78" s="23"/>
+      <c r="R78" s="24">
         <v>62.3</v>
       </c>
-      <c r="S78" s="68"/>
+      <c r="S78" s="24"/>
       <c r="T78" s="13">
         <v>0.33</v>
       </c>
@@ -5763,40 +7417,40 @@
       <c r="A79" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C79" s="73"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E79" s="73" t="s">
+      <c r="E79" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73" t="s">
+      <c r="F79" s="25"/>
+      <c r="G79" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="73" t="s">
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K79" s="73"/>
-      <c r="L79" s="73"/>
-      <c r="M79" s="73"/>
-      <c r="N79" s="74">
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="26">
         <v>126.35</v>
       </c>
-      <c r="O79" s="74"/>
-      <c r="P79" s="73" t="s">
+      <c r="O79" s="26"/>
+      <c r="P79" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q79" s="73"/>
-      <c r="R79" s="75" t="s">
+      <c r="Q79" s="25"/>
+      <c r="R79" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="S79" s="75"/>
+      <c r="S79" s="27"/>
       <c r="T79" s="16" t="s">
         <v>45</v>
       </c>
@@ -5811,317 +7465,44 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="17"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
-      <c r="X80" s="17"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="307">
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A80:X80"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="A58:X58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="A36:S36"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:P30"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="A32:S32"/>
-    <mergeCell ref="A33:S33"/>
-    <mergeCell ref="A34:S34"/>
-    <mergeCell ref="A35:S35"/>
-    <mergeCell ref="A23:S23"/>
-    <mergeCell ref="A24:S24"/>
-    <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A4:B6"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:J4"/>
@@ -6138,15 +7519,288 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="A23:S23"/>
+    <mergeCell ref="A24:S24"/>
+    <mergeCell ref="A25:S25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="A32:S32"/>
+    <mergeCell ref="A33:S33"/>
+    <mergeCell ref="A34:S34"/>
+    <mergeCell ref="A35:S35"/>
+    <mergeCell ref="A58:X58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="A36:S36"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="A80:X80"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
